--- a/data/excel_files/better_team_data.xlsx
+++ b/data/excel_files/better_team_data.xlsx
@@ -539,10 +539,8 @@
           <t>BECKYARDIGANS</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="C2" t="n">
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>62.5</v>
@@ -625,10 +623,8 @@
           <t>KILLER BS</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="C3" t="n">
+        <v>12</v>
       </c>
       <c r="D3" t="n">
         <v>58.33</v>
@@ -711,10 +707,8 @@
           <t>EXECUTIVE PROJEC</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="C4" t="n">
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>42.86</v>
@@ -797,10 +791,8 @@
           <t>MINORITIES</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="C5" t="n">
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>50</v>
@@ -965,10 +957,8 @@
           <t>PUSHIN PULLIS</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="C7" t="n">
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>25</v>
@@ -1051,10 +1041,8 @@
           <t>DIDDLERS</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="C8" t="n">
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>53.33</v>
@@ -1137,10 +1125,8 @@
           <t>SCAVS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="C9" t="n">
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>64.29000000000001</v>
